--- a/working_data/prop_0.001.xlsx
+++ b/working_data/prop_0.001.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B148"/>
+  <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,823 +441,1033 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>category</t>
+          <t>label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nobel Laureate’s Tongue-In-Cheek Resume Deserves A Prize Of Its Own -- "October 1941: Conceived by optimistic parents," is one highlight of Jacques Dubochet's professional record.</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SCIENCE</t>
+          <t>Facebook Algorithm May Have Aided GOP Over Democratic Party Groups: Research -- One co-author of the study said he observed a "weird pattern" after collecting social media data.</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>35</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Naya Rivera Diamond Necklace -- It looks like Big Sean had a direct phone call with Santa this year, requesting her new diamond bling arrive in time for the holiday photo ops.</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>STYLE &amp; BEAUTY</t>
+          <t>Catholic Bishops Are Already Divided On How To Deal With Biden's Progressive Faith -- Cardinal Blase Cupich issued an opening salvo in what may be a long struggle over how bishops will handle relations with America's second Catholic president.</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>24</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Positive Countries: What Nation Smiles The Most, Rests The Best And Enjoys Life To The Fullest? -- The most "glass-half-empty" country? Singapore, with 46 percent of people responding "yes" to the Gallup researchers' questions</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>‘Where Are The Masks Going?’ Trump Questions Use Of Supplies As Coronavirus Cases Surge -- Hospitals nationwide have issued pleas for protective equipment, including those in New York City, which said they only have a one-week supply left.</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>24</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>The Best Ways to Increase Voter Registration, and Voting -- Wherever traditionally under-registered people congregate, this has the potential to do more than reach people in a partisan fashion, or by phone or email.</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Salvadoran President Accepts Blame For Deaths Of Migrant Father And Young Girl -- “It is our fault," President Nayib Bukele said of the drowning in the Rio Grande.</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>College Tourist Student Guide to Bangkok, Thailand -- What comes to mind when BANGKOK is brought up? Luxury or affordability? Skyscrapers or forgotten buildings in disrepair? The city is an eclectic mix of all of the above. Bangkok charms its visitors with unexpected pleasantries as well as a day to day hustle &amp; bustle.</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TRAVEL</t>
+          <t>Bruno Mars Pays For Thanksgiving Meals For 24K People In His Home State Of Hawaii -- The "24K Magic" artist performed this weekend in Honolulu to close out his world tour.</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>How Much Do You Know About Where Your Halloween Candy Comes From? -- My family is breaking up with commercial chocolate, or buying fair trade. I hope you will, too.</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>PARENTING</t>
+          <t>Trump's Ambassador Lobbied UK On Behalf Of Jailed Right-Wing Activist Tommy Robinson -- Sam Brownback complained about how the anti-immigrant campaigner was being treated.</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>40</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Facebook Algorithm May Have Aided GOP Over Democratic Party Groups: Research -- One co-author of the study said he observed a "weird pattern" after collecting social media data.</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>U.S. NEWS</t>
+          <t>21st Century Fox Offices In London Raided By European Commission Investigators -- Fox Networks Group said it was cooperating with the EC inspection.</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>20</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Spouse Criticism May Worsen Chronic Low Back Pain -- Negative responses seem to work in a cycle.</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>HEALTHY LIVING</t>
+          <t>Federal Trade Commission Begins Investigating Facebook -- The probe was sparked by revelations that Cambridge Analytica misused Facebook user data.</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Human Nature Unleashed: #Charlottesville -- If you sleep with evil, you will certainly get at least some it on you.</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>RELIGION</t>
+          <t>Tennis Legend Althea Gibson To Be Honored With Statue At U.S. Open Site -- Gibson was the first African-American to win the Grand Slam title.</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Writers Guild Awards: 'Midnight In Paris,' 'The Descendants' Win Top Honors -- Meryl Streep isn't the only Hollywood star sitting on nearly three decades of Academy Awards losses. Woody Allen has been</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>This Parody Of The 'Avengers: Infinity War' Trailer Is Hilariously Weird -- It's hard to describe. You kinda just have to watch.</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Reporter Question Proves Trump 2016 Is An Entertainment Story -- Check out the expressions on the faces of Senate Democratic leaders.</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>What Makes Olympic Bobsledder Aja Evans Feel Like She ‘Can Take On The World’ -- Maintaining soft, supple, luminous hair and skin during the winter isn’t quite as simple as just slathering on conditioners</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4-Year-Old Cancer Patient 'Marries' Her Favorite Nurse -- They sealed the deal with a ceremonial exchange of ring pops</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GOOD NEWS</t>
+          <t>NFL Stars Go Full Offense On Twitter Trolls' Mean Tweets -- "First of all, that doesn’t even make sense."</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>There Is No Way This Daddy-Daughter Duet Could Be Cuter -- This 4-year-old was scared of firework noises outside, so dad grabbed his pink ukulele to distract her. Together, they performed</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>PARENTING</t>
+          <t>Roy Moore Still Won't Concede Defeat. It's Been A Week Since The Election. -- His opponent, Senator-elect Doug Jones, has urged him to "move on."</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>24</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>'Nightmare' Superbug May Have Spread Outside Hospitals -- "These bacteria might be moving from health care to community settings."</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>HEALTHY LIVING</t>
+          <t>People Can't Get Over Britney Spears' Christmas Tree -- Literally and figuratively.</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>10</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bill Cosby Sexually Assaulted Me. I Didn't Tell Because I Didn't Want To Let Black America Down. -- </t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>BLACK VOICES</t>
+          <t>Top NPR Editor Resigns After Sexual Harassment Allegations -- He was placed on leave Tuesday after the Washington Post published two women's accusations.</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>20</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>This Parody Of The 'Avengers: Infinity War' Trailer Is Hilariously Weird -- It's hard to describe. You kinda just have to watch.</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>Trump Tried To Look Compassionate. Instead, He Looked Like A Jerk. -- He reportedly told the wife of a fallen U.S. service member that her husband knew what he was signing up for.</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>24</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Why I'm So Grateful for a Purple Beach Shovel -- Max isn't into board games. He still needs help with coloring, painting and doing crafts. And so, moving around trucks is his best way to play independently. Then came The Purple Shovel.</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>PARENTING</t>
+          <t>Nobel Laureate’s Tongue-In-Cheek Resume Deserves A Prize Of Its Own -- "October 1941: Conceived by optimistic parents," is one highlight of Jacques Dubochet's professional record.</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>27</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>How to Stop Procrastinating by Using the 'Two-Minute Rule' -- Recently, I've been following a simple rule that is helping me crush procrastination and making it easier for me to stick to good habits at the same time. I want to share it with you today so that you can try it out and see how it works in your life.</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>Spouse Criticism May Worsen Chronic Low Back Pain -- Negative responses seem to work in a cycle.</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Trump Tried To Look Compassionate. Instead, He Looked Like A Jerk. -- He reportedly told the wife of a fallen U.S. service member that her husband knew what he was signing up for.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Human Nature Unleashed: #Charlottesville -- If you sleep with evil, you will certainly get at least some it on you.</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>26</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Adolescence And Divorce: Helping Families And Teens Cope -- Divorced parents of teens often wonder if their children's behavior and family relationship challenges are due to simply being a teen or due to the separation or divorce.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>DIVORCE</t>
+          <t>When The Police Are Criminals, Mexicans Have No One To Turn To -- "The government doesn't listen. ... You can vanish, and no one cares."
+​</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>33</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NFL Stars Go Full Offense On Twitter Trolls' Mean Tweets -- "First of all, that doesn’t even make sense."</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>COMEDY</t>
+          <t>What We Know So Far About The New White House Org Chart -- This article also appears on Republic Report.</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Tennis Legend Althea Gibson To Be Honored With Statue At U.S. Open Site -- Gibson was the first African-American to win the Grand Slam title.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>BLACK VOICES</t>
+          <t>How Should I Feel After Losing My Mom? -- There is no protocol when it comes to how one thrives after the passing of a parent.</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>23</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Two Steps to Rebooting Your Resolutions -- Real change can be hard to come by, and it's tempting to want to start lowering expectations, or throw in the towel on your goal completely.  But don't despair, because it's not too late to push the reset button and try tackling those goals again.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>What Are Five Steps Towards Finding A Way To Do Something In Your Life? -- Keep this in mind whenever you look at the things you want to do and accomplish in your life. In your life, the goals and</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>16</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Start Your Day Chia Seed Smoothie Style -- I always try to get creative with how I make them. You can put all kinds of things in smoothies. Flavored yogurt (frozen or regular!) ice cream, frozen coffee ice cubes, fruit, peanut butter, chocolate syrup, honey, juice and even oatmeal. Maybe not all of those things together, but you get the idea.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>TASTE</t>
+          <t>Mexican Journalist Javier Valdez Cárdenas Assassinated -- The award-winning reporter covered drugs and crime.</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>33</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Clippers Player Delivers Slam-Dunk Response To Team Owner's Alleged Racist Rant -- </t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>SPORTS</t>
+          <t>Why Comprehensive Immigration Reform May Be Next On Trump’s Agenda -- Wishful thinking? Consider this.</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Mexican Journalist Javier Valdez Cárdenas Assassinated -- The award-winning reporter covered drugs and crime.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>THE WORLDPOST</t>
+          <t>Ivanka Trump's 'Vapid' New Book Earns A Series Of Savage Reviews -- It's been described as "witless," "insufferable," "vapid," and "very vapid."</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Michelle Jenneke Shares Start Photo On Instagram -- Russell Smelley, the head track and field coach at Westmont College in California, told The Huffington Post "there might</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>SPORTS</t>
+          <t>L.A. School Board Puts Money And Lobbying Muscle Behind State Bills Drafted To Shackle Charter Schools -- By Mike Szymanski After passionate debate and pleas from both charter school administrators and parents, the Los Angeles</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>The Blindness of Privilege in a Time of Oppression -- Gay athletes aren't the ones who have to worry about being kidnapped and tortured by anti-gay gangs, with videos of the crimes put online to share with other bigots. Iraschko-Stolz speaks from a unique position of privilege, one denied to actual victims.</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>QUEER VOICES</t>
+          <t>Monitors Criticize Turkey Referendum, Erdogan Denounces 'Crusader Mentality' -- Erdogan won a referendum to grant him sweeping new powers with a narrow victory.</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>33</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Family' Pundit Makes Bizarre And Offensive Link Between Robin Williams' Death And 'Ex-Gay' Therapy -- </t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>QUEER VOICES</t>
+          <t>South Carolina Wins First Ever NCAA National Title -- South Carolina was threatening to run away with the title before Mississippi State clawed back in the third quarter.</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Idris Elba Raises Awareness Of (Positive?) Side Effect Of Wearing Bow Ties -- Want more? Be sure to check out HuffPost Style on Twitter, Facebook, Tumblr, Pinterest and Instagram at @HuffPostStyle. Thanks</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>STYLE &amp; BEAUTY</t>
+          <t>Mute Teen Fulfills His Dream Of Becoming A Rapper Despite Not Having A Jaw -- “See me for the real me/ Can’t talk out loud, but I’m still me.”</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>19</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Going Paperless: The Best Technology For De-Cluttering And Organizing -- Given all the bills, statements, manuals, letters, to-dos, shopping lists and junk mail that adorn nearly every surface in our homes, it can feel like the most unattainable aspiration to get to the bottom of it.</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>HOME &amp; LIVING</t>
+          <t>Trump's Anti-Extremism Proposal Could Alienate Muslims And Cut Funds To Fight White Nationalists -- Not exactly a win-win.</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>24</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>The Real Reason Women Are Leaving Wall Street: Quartz -- ”The sacrifices are enormous,” adds Horowitz. “You have to work hard, the politics are hard, it is hard to be in a minority</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>BUSINESS</t>
+          <t>Striking New York Cabbies Join Airport Protest Against Trump's Muslim Crackdown -- Drivers slam the president's "inhumane and unconstitutional ban."</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>24</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Inaugural Vases By Lenox Presented To Obama And Biden: All About Those Official Gifts (PHOTOS) -- The story behind the inaugural gifts.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>HOME &amp; LIVING</t>
+          <t xml:space="preserve">Random Sunsets Around the World - Part 7, Asia - Sinking Low on the Looney Front -- </t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>34</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>The Internet Can't Get Enough Of That Awkward Trump-Romney Dinner Photo -- It didn't take long for this one to become a meme.</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>COMEDY</t>
+          <t>'Nightmare' Superbug May Have Spread Outside Hospitals -- "These bacteria might be moving from health care to community settings."</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>16</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Why Comprehensive Immigration Reform May Be Next On Trump’s Agenda -- Wishful thinking? Consider this.</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>The Internet Can't Get Enough Of That Awkward Trump-Romney Dinner Photo -- It didn't take long for this one to become a meme.</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sleep Deprivation Linked With Buying More High-Calorie Foods While Grocery Shopping -- "We hypothesized that sleep deprivation's impact on hunger and decision-making would make for the 'perfect storm' with regard</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>Clueless Op-Ed On Sexism Reveals Businessman's Own Gender Bias -- The writer has apologized for his "dreadful article" that appeared in The Wall Street Journal.</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>39</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Why My 60s Are The Best Decade Of My Life -- According to a recent TODAY survey of 1,500 adults, the 60s can be a positive time of life. Of the participants in the study in their 60s, 72 percent said they felt younger than their age. A majority of the respondents said their journey so far was better than they expected. The key factors to happiness after 60 include personal health and adequate finances.</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>FIFTY</t>
+          <t>Police Fatally Shoot Black Man In San Diego Suburb, Sparking Protests -- The man later died after being taken to the hospital.</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>2</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Artists' Assistants and the IRS -- Not a trick question: Are artists' 'employees,' or are they 'independent contractors?' There are reasons why artists may want them to be a little bit of both. Many employers, including artists, prefer to forgo the paperwork and payment of employee taxes.</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>ARTS</t>
+          <t>Judge Says Secret Log Shows OC Sheriff's Deputies Dealt 'Extensively' With Jail Informants -- The log shows that sheriff's deputies actively "cultivated," "recruited and utilized" informants in county jails -- in secret, for years.</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>24</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">How Martin O'Malley Begins His Day: Prayer, Solitude And Some Very Non-Political Reading -- </t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>It's Official: E! Cancels 'I Am Cait' -- "It's time for the next adventure."</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>25</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ben Carson Would Not Support A Muslim Running For President -- "I would not advocate that we put a Muslim in charge of this nation."</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Bernie Supporters Are Ready To Pay The Bills For The Revolution -- They just crowdfunded delegates traveling to the convention.</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>24</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Israel and the Palestinians -- What Now? -- Despite the heroic efforts to bring Israel and the Palestinians to agreement, the current peace process effort has failed. To understand what the future holds, it is worth looking at why the process failed and what courses of action are now available.</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Forget 'Pokemon Go' And Try Geocaching, A Worldwide Scavenger Hunt -- You teach me and I'll teach you -- TO GEOCACHE!</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>32</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>America's 10 Sickest Slopes -- Sometimes you have to taste death to live life. Or at least that’s what the Successories poster above your futon says. Unfortunately</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>TRAVEL</t>
+          <t>Here's Proof That Jenny Slate And Chris Evans Are Officially A Couple -- "It's kind of like I got my dream seventh grade boyfriend," Slate said.</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>10</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Will New DSM-5 Diagnosis End 'Dementia' Stigma? -- "Dementia" is a loaded word, one that carries with it the baggage of hundreds of years of gross associations and misunderstanding of the reality of the person living with the illness.</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>Here's What It's Like To Have Tina Fey Play You In A Movie -- Try having the beloved actress and comedian spend a day in your shoes.</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Oscar De La Renta Told Hillary Clinton To Cut Her Hair (And She Didn't Listen) -- It is true that Hillary's hair was rather long back in her globe-trotting Secretary of State days. Remember the glittery</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>STYLE &amp; BEAUTY</t>
+          <t>Donald Trump’s Big Clinton-E-Mail Conspiracy Theory -- Thursday night, at the San Jose Convention Center, Donald Trump offered a very Trumpian theory for why Hillary Clinton, a</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>24</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Salvadoran President Accepts Blame For Deaths Of Migrant Father And Young Girl -- “It is our fault," President Nayib Bukele said of the drowning in the Rio Grande.</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>WORLD NEWS</t>
+          <t>Best Coast Singer On Sexual Harassment: ‘It’s Everywhere' -- "It doesn’t exist just in my industry."</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>39</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>9 Must-Have Features From Airports LGA Should Totally Borrow -- 4. Meditation rooms Travel is stressful,  there's no denying it. And to curb that stress, why not visit a meditation room</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>TRAVEL</t>
+          <t>Obama Pokes Fun At Bill De Blasio's 'CP Time' Joke -- Ouch.</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>24</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Clueless Op-Ed On Sexism Reveals Businessman's Own Gender Bias -- The writer has apologized for his "dreadful article" that appeared in The Wall Street Journal.</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>WOMEN</t>
+          <t>WHOOPS! Donald Trump Refers To 9/11 As 7/11 -- "I was down there and I watched our police and our firemen, down on 7/11, down at the World Trade Center, right after it came down."</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>24</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Donald Trump Will Not Apologize To John McCain -- WASHINGTON -- Billionaire eccentric Republican presidential candidate Donald Trump said on Sunday that he did not owe Sen</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>Americans Finally Realize That We Cause Climate Change -- And even Republicans are getting worried.</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>24</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">SVU Takes on Woody Allen, Child Sex Abuse and the Nature of Doubt -- </t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>Highlights From The GOP Debate In Houston -- Marco Rubio had an excellent night.</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>24</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Self-Acceptance: Are You an 'Alchemist' or a 'Leopard'? -- As a student of human nature, one of my favorite exercises is to try to divide people into two camps.</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>FSU Settles Lawsuit Over Jameis Winston Rape Allegations -- The school allegedly covered up a rape to protect the prized football program.</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>4</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Bernie Supporters Are Ready To Pay The Bills For The Revolution -- They just crowdfunded delegates traveling to the convention.</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>If Donald Trump Wrote The Bible -- God help us.</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>5</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Judge Says Secret Log Shows OC Sheriff's Deputies Dealt 'Extensively' With Jail Informants -- The log shows that sheriff's deputies actively "cultivated," "recruited and utilized" informants in county jails -- in secret, for years.</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>HuffPost Rise: What You Need To Know On January 13 -- Welcome to the HuffPost Rise Morning Newsbrief, a short wrap-up of the news to help you start your day.</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>24</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Great Sushi in NYC -- Sushi Dojo is a new favorite -- unpretentious and a very enjoyable experience.</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>FOOD &amp; DRINK</t>
+          <t>College Tourist Student Guide to Bangkok, Thailand -- What comes to mind when BANGKOK is brought up? Luxury or affordability? Skyscrapers or forgotten buildings in disrepair? The city is an eclectic mix of all of the above. Bangkok charms its visitors with unexpected pleasantries as well as a day to day hustle &amp; bustle.</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>34</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">WATCH: New Web Series Follows The 'People You Know' -- </t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>QUEER VOICES</t>
+          <t>The Holderness Family Just Released Their Newest 'Christmas Jammies' Video -- "Let's all get #elfed."</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>23</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LAPD Finds Huge Arsenal In Man's Home While Investigating His Death -- "Our truck couldn't carry it all. We had to go back and make another trip."</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>CRIME</t>
+          <t>Elementary School Teachers Ate Pot-Laced Brownies Left In Lounge -- Three educators got sick from eating the tainted food.</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>6</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>What We Know So Far About The New White House Org Chart -- This article also appears on Republic Report.</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>The One Thing You Probably Didn't Know About Genetic Inheritance -- Contrary to common belief, a child can inherit more than just genes from their parents.</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>27</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>President Obama Wages War on the Islamic State, aka ISIS and ISIL: Anatomy of a Disaster in the Making -- A  full-blooded war in its early stages is now underway, involving two antagonists, the Islamic State led by Abu Bakr al-Baghdadi, known to his followers as Caliph Ibrahim, and the United States of America, led by President Barack Obama.</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Nordstrom Removes Offensive Hanukkah Sweater From Online Store -- "We’re terribly sorry for offending people and sincerely apologize."</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>29</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Mute Teen Fulfills His Dream Of Becoming A Rapper Despite Not Having A Jaw -- “See me for the real me/ Can’t talk out loud, but I’m still me.”</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>LATINO VOICES</t>
+          <t>Amazon Still Pretty Angry About That New York Times Story -- Jay Carney offers detailed response to front-page story -- two months later.</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>3</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Your Weekly Travel Zen: Fields -- Where have you traveled for a moment of zen? Email travel@huffingtonpost.com with your travel zen or submit below. "Every</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>TRAVEL</t>
+          <t>BEHOLD THE TINY DUMPLINGS! -- We got dumps like a truck, truck, truck.</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>37</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Rand Paul Vows To Block Patriot Act Extension -- </t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Let's All Get Naked and Pose like Frozen Chickens -- Time to get clucked up.</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>37</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Elementary School Teachers Ate Pot-Laced Brownies Left In Lounge -- Three educators got sick from eating the tainted food.</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>CRIME</t>
+          <t>Selma Blair Gushes About Kris Jenner Ahead Of 'American Crime Story' Portrayal -- "I don’t think I knew just how amazingly likeable she is."</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>10</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Random Sunsets Around the World - Part 7, Asia - Sinking Low on the Looney Front -- </t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>TRAVEL</t>
+          <t>Ben Carson Would Not Support A Muslim Running For President -- "I would not advocate that we put a Muslim in charge of this nation."</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>24</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Police Fatally Shoot Black Man In San Diego Suburb, Sparking Protests -- The man later died after being taken to the hospital.</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>BLACK VOICES</t>
+          <t>Jorge Ramos Points Out Outrageous Cost Of Trump's Immigration Plan -- Jorge Ramos isn't giving Donald Trump a free pass. On his show Monday, Ramos tore into the 2016 GOP candidate's immigration</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Let's All Get Naked and Pose like Frozen Chickens -- Time to get clucked up.</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>WEIRD NEWS</t>
+          <t>9 Must-Have Features From Airports LGA Should Totally Borrow -- 4. Meditation rooms Travel is stressful,  there's no denying it. And to curb that stress, why not visit a meditation room</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>34</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Why Isn't Paul Ryan Getting the Sarah Palin Treatment? -- I have yet to hear anyone ask Congressman Ryan how he can possibly hold up his fatherly duties to his three elementary school-aged children while doing his job as a Wisconsin representative AND campaigning across America.</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>PARENTING</t>
+          <t>Reporter Question Proves Trump 2016 Is An Entertainment Story -- Check out the expressions on the faces of Senate Democratic leaders.</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>10</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Selma Blair Gushes About Kris Jenner Ahead Of 'American Crime Story' Portrayal -- "I don’t think I knew just how amazingly likeable she is."</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>LAPD Finds Huge Arsenal In Man's Home While Investigating His Death -- "Our truck couldn't carry it all. We had to go back and make another trip."</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>6</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Life After Divorce: Why Every Woman Needs a Plan B -- I'm so glad I made that list and followed through with it. I'm glad I didn't wallow in denial -- or in false hope. Some might</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>DIVORCE</t>
+          <t>Donald Trump Will Not Apologize To John McCain -- WASHINGTON -- Billionaire eccentric Republican presidential candidate Donald Trump said on Sunday that he did not owe Sen</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>10</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>21st Century Fox Offices In London Raided By European Commission Investigators -- Fox Networks Group said it was cooperating with the EC inspection.</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
+          <t>4-Year-Old Cancer Patient 'Marries' Her Favorite Nurse -- They sealed the deal with a ceremonial exchange of ring pops</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>14</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
@@ -1267,922 +1477,1152 @@
           <t>Carbon Diary of a Reluctant Traveler -- Last year I flew 77,000 miles on 30 flights over 9 work trips, releasing an additional 11 tons of CO2. This means that flying for work quadrupled my emissions last year.</t>
         </is>
       </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GREEN</t>
+      <c r="B70" t="n">
+        <v>15</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Here's Proof That Jenny Slate And Chris Evans Are Officially A Couple -- "It's kind of like I got my dream seventh grade boyfriend," Slate said.</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>Start Your Day Chia Seed Smoothie Style -- I always try to get creative with how I make them. You can put all kinds of things in smoothies. Flavored yogurt (frozen or regular!) ice cream, frozen coffee ice cubes, fruit, peanut butter, chocolate syrup, honey, juice and even oatmeal. Maybe not all of those things together, but you get the idea.</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>31</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>It's Official: E! Cancels 'I Am Cait' -- "It's time for the next adventure."</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>QUEER VOICES</t>
+          <t xml:space="preserve">Rand Paul Vows To Block Patriot Act Extension -- </t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>24</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">After Years Of Healing, Lisa Visited The Place She Almost Committed Suicide -- </t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>HEALTHY LIVING</t>
+          <t xml:space="preserve">How Martin O'Malley Begins His Day: Prayer, Solitude And Some Very Non-Political Reading -- </t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>24</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Highlights From The GOP Debate In Houston -- Marco Rubio had an excellent night.</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t xml:space="preserve">Bill Cosby Sexually Assaulted Me. I Didn't Tell Because I Didn't Want To Let Black America Down. -- </t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Federal Trade Commission Begins Investigating Facebook -- The probe was sparked by revelations that Cambridge Analytica misused Facebook user data.</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>PETA Hires Lobbyist to Quash Bill That Would Restrain Their Pet Killing -- The Virginia Senate voted overwhelmingly for a bill that would restrict PETA's mass killing of dogs and cats at its Norfolk headquarters; but PETA has hired a crack lobbyist in an effort to push for the vote to fail tomorrow in the Virginia House of Delegates.</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>24</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>How Having Kids Helped Me Grow Up -- Having children forced me to slow down, to let go of concerns about order and deadlines and status. I was forced to accept my own limitations, and accepting those limitations ultimately led to letting go of control. Accepting my own limitations ultimately led me to learn how to love.</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>PARENTS</t>
+          <t xml:space="preserve">Houthi Gunmen Fire On Crowds Protesting Their Rule In Yemen -- </t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>41</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Best Airports for Traveling with Kids -- We all know the blues that come from leaving a fabulous vacation. At least with a great airport, the ride home won't be so bad.</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>PARENTING</t>
+          <t xml:space="preserve">Pastor Who Spent A Year Living Without God No Longer Believes -- </t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>26</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Trump's Anti-Extremism Proposal Could Alienate Muslims And Cut Funds To Fight White Nationalists -- Not exactly a win-win.</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Why My 60s Are The Best Decade Of My Life -- According to a recent TODAY survey of 1,500 adults, the 60s can be a positive time of life. Of the participants in the study in their 60s, 72 percent said they felt younger than their age. A majority of the respondents said their journey so far was better than they expected. The key factors to happiness after 60 include personal health and adequate finances.</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>12</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">This Blind Grandpa Is Running 11,000 Miles Around The U.S. To Raise Funds For Cystic Fibrosis -- </t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>IMPACT</t>
+          <t>49ers Beat Redskins Late in the Fourth -- Washington tied the game again 10-10 with a 27-yard field goal from Forbath in the third.  Despite taking the lead in the fourth, the Redskins were no match for the 49ers in the end.  Washington lost their third game in a row and forth straight to San Francisco.</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>28</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>What Are Five Steps Towards Finding A Way To Do Something In Your Life? -- Keep this in mind whenever you look at the things you want to do and accomplish in your life. In your life, the goals and</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>HEALTHY LIVING</t>
+          <t>How Having Kids Helped Me Grow Up -- Having children forced me to slow down, to let go of concerns about order and deadlines and status. I was forced to accept my own limitations, and accepting those limitations ultimately led to letting go of control. Accepting my own limitations ultimately led me to learn how to love.</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>23</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Catholic Bishops Are Already Divided On How To Deal With Biden's Progressive Faith -- Cardinal Blase Cupich issued an opening salvo in what may be a long struggle over how bishops will handle relations with America's second Catholic president.</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>The Best Ways to Increase Voter Registration, and Voting -- Wherever traditionally under-registered people congregate, this has the potential to do more than reach people in a partisan fashion, or by phone or email.</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>24</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Your Fat Belly Is Not Toxic -- It seems that over the past few years more and more detox and fasting systems have appeared on the market. Another thing I've noticed is that more and more people are looking at detoxing and/or fasting as a good weight-loss solution.</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>Consciously Designing Your Ideal Business -- Once you've consciously envisioned the life you desire, it's time to consciously design your ideal business. From my perspective, this begins by defining the powerful difference you are passionate to make through your life and business.</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>3</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">Defender of Texting and Driving Can't Be Serious -- </t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>COMEDY</t>
+          <t>President Obama Wages War on the Islamic State, aka ISIS and ISIL: Anatomy of a Disaster in the Making -- A  full-blooded war in its early stages is now underway, involving two antagonists, the Islamic State led by Abu Bakr al-Baghdadi, known to his followers as Caliph Ibrahim, and the United States of America, led by President Barack Obama.</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>24</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Are Touchscreens And Social Media Good for Kids? Plus, 3D Printing Puts Down Roots In NYC -- Americans will buy millions of smartphones, tablet computers and other digital tech this holiday season, and many of those</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>PARENTING</t>
+          <t xml:space="preserve">'Prius Repellents' Versus Indigenous People: A Showdown on Climate Change -- </t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>15</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">Boko Haram Clashes With Cameroon Troops In Deadly Cross-Border Raids -- </t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>WORLDPOST</t>
+          <t xml:space="preserve">After Years Of Healing, Lisa Visited The Place She Almost Committed Suicide -- </t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>16</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Obama Pokes Fun At Bill De Blasio's 'CP Time' Joke -- Ouch.</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t xml:space="preserve">This Blind Grandpa Is Running 11,000 Miles Around The U.S. To Raise Funds For Cystic Fibrosis -- </t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>18</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Here's What It's Like To Have Tina Fey Play You In A Movie -- Try having the beloved actress and comedian spend a day in your shoes.</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t xml:space="preserve">'Family' Pundit Makes Bizarre And Offensive Link Between Robin Williams' Death And 'Ex-Gay' Therapy -- </t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>25</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Roy Moore Still Won't Concede Defeat. It's Been A Week Since The Election. -- His opponent, Senator-elect Doug Jones, has urged him to "move on."</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t xml:space="preserve">Boko Haram Clashes With Cameroon Troops In Deadly Cross-Border Raids -- </t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>41</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>How Should I Feel After Losing My Mom? -- There is no protocol when it comes to how one thrives after the passing of a parent.</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>PARENTS</t>
+          <t>Discovering The Pink Petticoat, Tampa's Lingerie Treasure Trove -- Girls just want to have fun! Right? Well The Pink Petticoat is just the place to have some fun; it drips feminism.</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>29</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>L.A. School Board Puts Money And Lobbying Muscle Behind State Bills Drafted To Shackle Charter Schools -- By Mike Szymanski After passionate debate and pleas from both charter school administrators and parents, the Los Angeles</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>EDUCATION</t>
+          <t xml:space="preserve">U.S. Lawmakers Hammer General Motors Over 'Culture Of Secrecy' -- </t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>24</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HuffPost Rise: What You Need To Know On January 13 -- Welcome to the HuffPost Rise Morning Newsbrief, a short wrap-up of the news to help you start your day.</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>8 Signs You've Chosen the Wrong Job or Career -- According to a survey by the Deloitte Shift Index, 80 percent of employees report job dissatisfaction. Do you fit in this category? Here are eight signs that you've chosen the wrong job or career.</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>3</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>When The Police Are Criminals, Mexicans Have No One To Turn To -- "The government doesn't listen. ... You can vanish, and no one cares."
-​</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>THE WORLDPOST</t>
+          <t xml:space="preserve">WATCH: New Web Series Follows The 'People You Know' -- </t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>25</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Blood Sugar Solution Challenge, Day 29: Eat 'Good' White Foods -- Mostly we should stay away from white food -- white flour, white sugar, white rice, starchy whitepotatoes. These raise our blood sugar quickly and guarantee progressive weight gain. But there are a few wonderful white foods full of nutrients, protein, anti-inflammatory and detoxifying compounds.</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t xml:space="preserve">Defender of Texting and Driving Can't Be Serious -- </t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>5</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>8 Signs You've Chosen the Wrong Job or Career -- According to a survey by the Deloitte Shift Index, 80 percent of employees report job dissatisfaction. Do you fit in this category? Here are eight signs that you've chosen the wrong job or career.</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>BUSINESS</t>
+          <t xml:space="preserve">SVU Takes on Woody Allen, Child Sex Abuse and the Nature of Doubt -- </t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>10</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Prescription Painkillers Mixed With Alcohol: A Deadly Mix -- High schools and colleges across our nation need to be aware of this growing threat and the need to educate students about the dangers of prescription drug misuse along with excessive drinking and illegal drug abuse.</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t xml:space="preserve">Autism: Who's the Culprit? Mother Nature or Mother Nurture? -- </t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>16</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Discovering The Pink Petticoat, Tampa's Lingerie Treasure Trove -- Girls just want to have fun! Right? Well The Pink Petticoat is just the place to have some fun; it drips feminism.</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>STYLE</t>
+          <t>Israel and the Palestinians -- What Now? -- Despite the heroic efforts to bring Israel and the Palestinians to agreement, the current peace process effort has failed. To understand what the future holds, it is worth looking at why the process failed and what courses of action are now available.</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>24</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>49ers Beat Redskins Late in the Fourth -- Washington tied the game again 10-10 with a 27-yard field goal from Forbath in the third.  Despite taking the lead in the fourth, the Redskins were no match for the 49ers in the end.  Washington lost their third game in a row and forth straight to San Francisco.</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>SPORTS</t>
+          <t>Artists' Assistants and the IRS -- Not a trick question: Are artists' 'employees,' or are they 'independent contractors?' There are reasons why artists may want them to be a little bit of both. Many employers, including artists, prefer to forgo the paperwork and payment of employee taxes.</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>The One Thing You Probably Didn't Know About Genetic Inheritance -- Contrary to common belief, a child can inherit more than just genes from their parents.</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>SCIENCE</t>
+          <t xml:space="preserve">Clippers Player Delivers Slam-Dunk Response To Team Owner's Alleged Racist Rant -- </t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>28</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>On Tenderness -- Tenderness is a great teacher -- coming to it in our culture is grace and wisdom. The tenderness of allowance and the allowance of tenderness starts with the way one is with oneself.</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>Combatting Human Slavery at the United Nations -- If we could do half as good a job of creating a meaningful taboo in the United States around buying and selling young people for sex as we do around smoking, we'd be so much further along the road to eliminating demand.</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>18</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PETA Hires Lobbyist to Quash Bill That Would Restrain Their Pet Killing -- The Virginia Senate voted overwhelmingly for a bill that would restrict PETA's mass killing of dogs and cats at its Norfolk headquarters; but PETA has hired a crack lobbyist in an effort to push for the vote to fail tomorrow in the Virginia House of Delegates.</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>The Blindness of Privilege in a Time of Oppression -- Gay athletes aren't the ones who have to worry about being kidnapped and tortured by anti-gay gangs, with videos of the crimes put online to share with other bigots. Iraschko-Stolz speaks from a unique position of privilege, one denied to actual victims.</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>25</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Jorge Ramos Points Out Outrageous Cost Of Trump's Immigration Plan -- Jorge Ramos isn't giving Donald Trump a free pass. On his show Monday, Ramos tore into the 2016 GOP candidate's immigration</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>In Tune With the Spirit -- "I found I could remember teachings more easily and enjoyed them even more when I composed music under them," said Rhodes</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>38</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">Autism: Who's the Culprit? Mother Nature or Mother Nurture? -- </t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>HEALTHY LIVING</t>
+          <t>Idris Elba Raises Awareness Of (Positive?) Side Effect Of Wearing Bow Ties -- Want more? Be sure to check out HuffPost Style on Twitter, Facebook, Tumblr, Pinterest and Instagram at @HuffPostStyle. Thanks</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>30</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Christian Siriano Wise Beyond His Years -- Christian Siriano is known for many things, an amazing design force, a creative, an innovator and as Tim Gunn would call him, a prodigy. But what really makes Christian tick? What motivates him? What pushes him to the forefront of success?</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>STYLE &amp; BEAUTY</t>
+          <t>Naya Rivera Diamond Necklace -- It looks like Big Sean had a direct phone call with Santa this year, requesting her new diamond bling arrive in time for the holiday photo ops.</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>30</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tomás Saraceno's 'In Orbit' Is His Largest Exhibition To Date (PHOTOS) -- The museum describes the experience of interacting with the piece below: Saraceno's installations certainly appeal to the</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>CULTURE &amp; ARTS</t>
+          <t>Christian Siriano Wise Beyond His Years -- Christian Siriano is known for many things, an amazing design force, a creative, an innovator and as Tim Gunn would call him, a prodigy. But what really makes Christian tick? What motivates him? What pushes him to the forefront of success?</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>30</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Celebrity High School Sweethearts Who Are Still Together Today (PHOTOS) -- It might seem like big celebrities meet their husbands and wives on movies sets, on tour with their bands or at exclusive</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>WEDDINGS</t>
+          <t>America's 10 Sickest Slopes -- Sometimes you have to taste death to live life. Or at least that’s what the Successories poster above your futon says. Unfortunately</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>34</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Walk Down Aisle Was Extra Special For Bride Whose Dad Overcame A Stroke Before Big Day -- Related: Trend We Love: First Look with Dad Photo Credit: Reflections Creative Photography By Victoria Torres for Bridal</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>WEDDINGS</t>
+          <t>Daniel Boulud's Inspired Recipe: Poulet a l'Estragon -- Daniel Boulud may have restaurants across the world, including a 3 Michelin star one, but he's still inspired by his mother and grandmother's cooking.</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>13</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Daniel Boulud's Inspired Recipe: Poulet a l'Estragon -- Daniel Boulud may have restaurants across the world, including a 3 Michelin star one, but he's still inspired by his mother and grandmother's cooking.</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>FOOD &amp; DRINK</t>
+          <t>Great Sushi in NYC -- Sushi Dojo is a new favorite -- unpretentious and a very enjoyable experience.</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>13</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Monitors Criticize Turkey Referendum, Erdogan Denounces 'Crusader Mentality' -- Erdogan won a referendum to grant him sweeping new powers with a narrow victory.</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>THE WORLDPOST</t>
+          <t>There Is No Way This Daddy-Daughter Duet Could Be Cuter -- This 4-year-old was scared of firework noises outside, so dad grabbed his pink ukulele to distract her. Together, they performed</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>22</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Bruno Mars Pays For Thanksgiving Meals For 24K People In His Home State Of Hawaii -- The "24K Magic" artist performed this weekend in Honolulu to close out his world tour.</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>Walk Down Aisle Was Extra Special For Bride Whose Dad Overcame A Stroke Before Big Day -- Related: Trend We Love: First Look with Dad Photo Credit: Reflections Creative Photography By Victoria Torres for Bridal</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>36</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">U.S. Lawmakers Hammer General Motors Over 'Culture Of Secrecy' -- </t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>The Real Reason Women Are Leaving Wall Street: Quartz -- ”The sacrifices are enormous,” adds Horowitz. “You have to work hard, the politics are hard, it is hard to be in a minority</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>3</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Americans Finally Realize That We Cause Climate Change -- And even Republicans are getting worried.</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Sleep Deprivation Linked With Buying More High-Calorie Foods While Grocery Shopping -- "We hypothesized that sleep deprivation's impact on hunger and decision-making would make for the 'perfect storm' with regard</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>38</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Donald Trump’s Big Clinton-E-Mail Conspiracy Theory -- Thursday night, at the San Jose Convention Center, Donald Trump offered a very Trumpian theory for why Hillary Clinton, a</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Life After Divorce: Why Every Woman Needs a Plan B -- I'm so glad I made that list and followed through with it. I'm glad I didn't wallow in denial -- or in false hope. Some might</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>8</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Houthi Gunmen Fire On Crowds Protesting Their Rule In Yemen -- </t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>WORLDPOST</t>
+          <t>Your Weekly Travel Zen: Fields -- Where have you traveled for a moment of zen? Email travel@huffingtonpost.com with your travel zen or submit below. "Every</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>34</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>South Carolina Wins First Ever NCAA National Title -- South Carolina was threatening to run away with the title before Mississippi State clawed back in the third quarter.</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>SPORTS</t>
+          <t>Oscar De La Renta Told Hillary Clinton To Cut Her Hair (And She Didn't Listen) -- It is true that Hillary's hair was rather long back in her globe-trotting Secretary of State days. Remember the glittery</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>30</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Millie and Me -- Mega-fires like Millie will become increasingly common in the years to come, as climate-change clears our forests. The men and women who fight fires in our country are the best we -- and our government -- have to offer.</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>ENVIRONMENT</t>
+          <t>Michelle Jenneke Shares Start Photo On Instagram -- Russell Smelley, the head track and field coach at Westmont College in California, told The Huffington Post "there might</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>28</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BEHOLD THE TINY DUMPLINGS! -- We got dumps like a truck, truck, truck.</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>WEIRD NEWS</t>
+          <t>Why I'm So Grateful for a Purple Beach Shovel -- Max isn't into board games. He still needs help with coloring, painting and doing crafts. And so, moving around trucks is his best way to play independently. Then came The Purple Shovel.</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>22</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Prius Repellents' Versus Indigenous People: A Showdown on Climate Change -- </t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>GREEN</t>
+          <t>Here's The Angelino Heights House That Played A Brothel On The Mad Men Season Finale -- AMC's Mad Men featured its usual slew of Los Angeles locations filling in for mid-century New York (and also LA and Detroit</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>17</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Top NPR Editor Resigns After Sexual Harassment Allegations -- He was placed on leave Tuesday after the Washington Post published two women's accusations.</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>MEDIA</t>
+          <t>Tomás Saraceno's 'In Orbit' Is His Largest Exhibition To Date (PHOTOS) -- The museum describes the experience of interacting with the piece below: Saraceno's installations certainly appeal to the</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>7</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>In Tune With the Spirit -- "I found I could remember teachings more easily and enjoyed them even more when I composed music under them," said Rhodes</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>How to Stop Procrastinating by Using the 'Two-Minute Rule' -- Recently, I've been following a simple rule that is helping me crush procrastination and making it easier for me to stick to good habits at the same time. I want to share it with you today so that you can try it out and see how it works in your life.</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>38</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>‘Where Are The Masks Going?’ Trump Questions Use Of Supplies As Coronavirus Cases Surge -- Hospitals nationwide have issued pleas for protective equipment, including those in New York City, which said they only have a one-week supply left.</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>Celebrity High School Sweethearts Who Are Still Together Today (PHOTOS) -- It might seem like big celebrities meet their husbands and wives on movies sets, on tour with their bands or at exclusive</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>36</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Here's The Angelino Heights House That Played A Brothel On The Mad Men Season Finale -- AMC's Mad Men featured its usual slew of Los Angeles locations filling in for mid-century New York (and also LA and Detroit</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>HOME &amp; LIVING</t>
+          <t>Best Airports for Traveling with Kids -- We all know the blues that come from leaving a fabulous vacation. At least with a great airport, the ride home won't be so bad.</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>22</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Forget 'Pokemon Go' And Try Geocaching, A Worldwide Scavenger Hunt -- You teach me and I'll teach you -- TO GEOCACHE!</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>TECH</t>
+          <t>Is There a Better Way to 5-a-Day? -- Competition is usually healthy, but when it comes to salad competing against a hamburger with French fries, the competition makes the healthy choice ever so difficult.</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>38</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Holiday Travel: Staying Smart and Stress Free With Travel Changes -- As we've seen with Hurricane Sandy, some things are out of our control. Most travel stress, however, comes from much smaller issues, and a little planning and preparation can go a long way in making the holiday travel experience much less stressful.</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>TRAVEL</t>
+          <t>Adolescence And Divorce: Helping Families And Teens Cope -- Divorced parents of teens often wonder if their children's behavior and family relationship challenges are due to simply being a teen or due to the separation or divorce.</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>8</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Trump's Ambassador Lobbied UK On Behalf Of Jailed Right-Wing Activist Tommy Robinson -- Sam Brownback complained about how the anti-immigrant campaigner was being treated.</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>WORLD NEWS</t>
+          <t>Your Fat Belly Is Not Toxic -- It seems that over the past few years more and more detox and fasting systems have appeared on the market. Another thing I've noticed is that more and more people are looking at detoxing and/or fasting as a good weight-loss solution.</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>38</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>The Holderness Family Just Released Their Newest 'Christmas Jammies' Video -- "Let's all get #elfed."</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>PARENTS</t>
+          <t>Inaugural Vases By Lenox Presented To Obama And Biden: All About Those Official Gifts (PHOTOS) -- The story behind the inaugural gifts.</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>17</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Fashionably Late Style Quiz: Test Your Knowledge Of This Week's Fashion News! -- So, you think you're a real fashionista, hmm? Well, then step right up and take HuffPost Style's Fashionably Late Style Quiz</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>STYLE &amp; BEAUTY</t>
+          <t>Positive Countries: What Nation Smiles The Most, Rests The Best And Enjoys Life To The Fullest? -- The most "glass-half-empty" country? Singapore, with 46 percent of people responding "yes" to the Gallup researchers' questions</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>38</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>What Makes Olympic Bobsledder Aja Evans Feel Like She ‘Can Take On The World’ -- Maintaining soft, supple, luminous hair and skin during the winter isn’t quite as simple as just slathering on conditioners</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>Prescription Painkillers Mixed With Alcohol: A Deadly Mix -- High schools and colleges across our nation need to be aware of this growing threat and the need to educate students about the dangers of prescription drug misuse along with excessive drinking and illegal drug abuse.</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>38</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Amazon Still Pretty Angry About That New York Times Story -- Jay Carney offers detailed response to front-page story -- two months later.</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>BUSINESS</t>
+          <t>Wedding Timeline -- Everybody wants their wedding to be an unforgettable experience, and so do I. But to have that dream wedding you're going to have to get the planning started far in advance.</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>36</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>My September Issues -- I'm undecided about metallic jeans as my weekends are a little more Netflix than Nobu. My fashion fantasies are ultimately dashed by financial limitations. In other words, I'm on a budget. I've decided that I am ready to embrace the metallic studded sneaker trend a la Miu Miu.</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>STYLE &amp; BEAUTY</t>
+          <t>Are Touchscreens And Social Media Good for Kids? Plus, 3D Printing Puts Down Roots In NYC -- Americans will buy millions of smartphones, tablet computers and other digital tech this holiday season, and many of those</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>22</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Best Coast Singer On Sexual Harassment: ‘It’s Everywhere' -- "It doesn’t exist just in my industry."</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>WOMEN</t>
+          <t>Holiday Travel: Staying Smart and Stress Free With Travel Changes -- As we've seen with Hurricane Sandy, some things are out of our control. Most travel stress, however, comes from much smaller issues, and a little planning and preparation can go a long way in making the holiday travel experience much less stressful.</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>34</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pastor Who Spent A Year Living Without God No Longer Believes -- </t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>RELIGION</t>
+          <t>How Much Do You Know About Where Your Halloween Candy Comes From? -- My family is breaking up with commercial chocolate, or buying fair trade. I hope you will, too.</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>22</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>People Can't Get Over Britney Spears' Christmas Tree -- Literally and figuratively.</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>ENTERTAINMENT</t>
+          <t>Going Paperless: The Best Technology For De-Cluttering And Organizing -- Given all the bills, statements, manuals, letters, to-dos, shopping lists and junk mail that adorn nearly every surface in our homes, it can feel like the most unattainable aspiration to get to the bottom of it.</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>17</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>The Impossible Conundrum -- Keeping our long-term goals on our radar, and knowing the exact steps we can take to get there via a financial plan, is just the motivation we need to stick to our budgets, save for retirement and plan ahead.</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>MONEY</t>
+          <t>Millie and Me -- Mega-fires like Millie will become increasingly common in the years to come, as climate-change clears our forests. The men and women who fight fires in our country are the best we -- and our government -- have to offer.</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>11</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Striking New York Cabbies Join Airport Protest Against Trump's Muslim Crackdown -- Drivers slam the president's "inhumane and unconstitutional ban."</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>My September Issues -- I'm undecided about metallic jeans as my weekends are a little more Netflix than Nobu. My fashion fantasies are ultimately dashed by financial limitations. In other words, I'm on a budget. I've decided that I am ready to embrace the metallic studded sneaker trend a la Miu Miu.</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>30</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FSU Settles Lawsuit Over Jameis Winston Rape Allegations -- The school allegedly covered up a rape to protect the prized football program.</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>COLLEGE</t>
+          <t>Why Isn't Paul Ryan Getting the Sarah Palin Treatment? -- I have yet to hear anyone ask Congressman Ryan how he can possibly hold up his fatherly duties to his three elementary school-aged children while doing his job as a Wisconsin representative AND campaigning across America.</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>22</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Prince William, Kate Middleton Dropped More Than $80,000 On Plane Tickets From LA To London -- According to documents released on Monday, the former Kate Middleton and Prince William dropped around $80,000 on their one</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>TRAVEL</t>
+          <t>5 Characteristics That Can Maximize Your Income Potential -- What does it take to maximize your income potential at a time when the economy seems uncertain?  What does it take to secure some cushion of comfort that promotes peace of mind?  If you're like many people today, financial concerns top the list of worries.</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>38</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Nordstrom Removes Offensive Hanukkah Sweater From Online Store -- "We’re terribly sorry for offending people and sincerely apologize."</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>STYLE</t>
+          <t>Prince William, Kate Middleton Dropped More Than $80,000 On Plane Tickets From LA To London -- According to documents released on Monday, the former Kate Middleton and Prince William dropped around $80,000 on their one</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>34</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Wedding Timeline -- Everybody wants their wedding to be an unforgettable experience, and so do I. But to have that dream wedding you're going to have to get the planning started far in advance.</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>WEDDINGS</t>
+          <t>On Tenderness -- Tenderness is a great teacher -- coming to it in our culture is grace and wisdom. The tenderness of allowance and the allowance of tenderness starts with the way one is with oneself.</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>38</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Courtney Cachet's "MY MOM'S THE BOMB!" Mother's Day Gift Guide -- No matter who you are or where you come from, we love our children and we'd give our right arm for them. So give her something cool, will ya? Don't know what to get? Relax, I got your back.</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>STYLE &amp; BEAUTY</t>
+          <t>Fashionably Late Style Quiz: Test Your Knowledge Of This Week's Fashion News! -- So, you think you're a real fashionista, hmm? Well, then step right up and take HuffPost Style's Fashionably Late Style Quiz</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>30</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Combatting Human Slavery at the United Nations -- If we could do half as good a job of creating a meaningful taboo in the United States around buying and selling young people for sex as we do around smoking, we'd be so much further along the road to eliminating demand.</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>IMPACT</t>
+          <t>Courtney Cachet's "MY MOM'S THE BOMB!" Mother's Day Gift Guide -- No matter who you are or where you come from, we love our children and we'd give our right arm for them. So give her something cool, will ya? Don't know what to get? Relax, I got your back.</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>30</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>5 Characteristics That Can Maximize Your Income Potential -- What does it take to maximize your income potential at a time when the economy seems uncertain?  What does it take to secure some cushion of comfort that promotes peace of mind?  If you're like many people today, financial concerns top the list of worries.</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>Will New DSM-5 Diagnosis End 'Dementia' Stigma? -- "Dementia" is a loaded word, one that carries with it the baggage of hundreds of years of gross associations and misunderstanding of the reality of the person living with the illness.</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>38</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>What Is Resurrection Cheese? -- Reportedly, cheeses were inscribed with lines such as "Here lies Blodwen Evans, aged 72." If you ask us, that's one loaded</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>FOOD &amp; DRINK</t>
+          <t>Blood Sugar Solution Challenge, Day 29: Eat 'Good' White Foods -- Mostly we should stay away from white food -- white flour, white sugar, white rice, starchy whitepotatoes. These raise our blood sugar quickly and guarantee progressive weight gain. But there are a few wonderful white foods full of nutrients, protein, anti-inflammatory and detoxifying compounds.</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>38</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>WHOOPS! Donald Trump Refers To 9/11 As 7/11 -- "I was down there and I watched our police and our firemen, down on 7/11, down at the World Trade Center, right after it came down."</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>POLITICS</t>
+          <t>What Is Resurrection Cheese? -- Reportedly, cheeses were inscribed with lines such as "Here lies Blodwen Evans, aged 72." If you ask us, that's one loaded</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>13</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>If Donald Trump Wrote The Bible -- God help us.</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>COMEDY</t>
+          <t>The Impossible Conundrum -- Keeping our long-term goals on our radar, and knowing the exact steps we can take to get there via a financial plan, is just the motivation we need to stick to our budgets, save for retirement and plan ahead.</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>21</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>test</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Is There a Better Way to 5-a-Day? -- Competition is usually healthy, but when it comes to salad competing against a hamburger with French fries, the competition makes the healthy choice ever so difficult.</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>WELLNESS</t>
+          <t>Writers Guild Awards: 'Midnight In Paris,' 'The Descendants' Win Top Honors -- Meryl Streep isn't the only Hollywood star sitting on nearly three decades of Academy Awards losses. Woody Allen has been</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>10</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Ivanka Trump's 'Vapid' New Book Earns A Series Of Savage Reviews -- It's been described as "witless," "insufferable," "vapid," and "very vapid."</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ARTS &amp; CULTURE</t>
+          <t>Two Steps to Rebooting Your Resolutions -- Real change can be hard to come by, and it's tempting to want to start lowering expectations, or throw in the towel on your goal completely.  But don't despair, because it's not too late to push the reset button and try tackling those goals again.</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>38</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
@@ -2192,21 +2632,27 @@
           <t>7 Healthy Hot Breakfast Cereal Recipes -- Are you tired of your breakfast? You probably eat the same thing every day just out of ease or necessity. Well it's about</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>FOOD &amp; DRINK</t>
+      <c r="B147" t="n">
+        <v>13</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Consciously Designing Your Ideal Business -- Once you've consciously envisioned the life you desire, it's time to consciously design your ideal business. From my perspective, this begins by defining the powerful difference you are passionate to make through your life and business.</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>BUSINESS</t>
+          <t>Self-Acceptance: Are You an 'Alchemist' or a 'Leopard'? -- As a student of human nature, one of my favorite exercises is to try to divide people into two camps.</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>38</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>train</t>
         </is>
       </c>
     </row>
